--- a/Reports/ISO-1/iso-1CHART.xlsx
+++ b/Reports/ISO-1/iso-1CHART.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="15420" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="dialectList">[2]CSW!$C$4:$C$620</definedName>
+    <definedName name="dialectList">[1]CSW!$C$4:$C$620</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mandatory</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>DataCite</t>
+  </si>
+  <si>
+    <t>EOL</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[1]DCITE2_Pivot!$C$4:$L$4</c:f>
+              <c:f>[2]DCITE2_Pivot!$C$4:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -338,7 +341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]DCITE2_Pivot!$C$21:$L$21</c:f>
+              <c:f>[2]DCITE2_Pivot!$C$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -385,11 +388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2092305856"/>
-        <c:axId val="-2003353168"/>
+        <c:axId val="-2004197712"/>
+        <c:axId val="-2096174384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092305856"/>
+        <c:axId val="-2004197712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -399,7 +402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2003353168"/>
+        <c:crossAx val="-2096174384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -407,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2003353168"/>
+        <c:axId val="-2096174384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092305856"/>
+        <c:crossAx val="-2004197712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -639,13 +642,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,13 +770,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,6 +910,69 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EOL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mandatory</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Conditional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -916,11 +982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2105757312"/>
-        <c:axId val="-2075294976"/>
+        <c:axId val="-2030995584"/>
+        <c:axId val="-2045135936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2105757312"/>
+        <c:axId val="-2030995584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075294976"/>
+        <c:crossAx val="-2045135936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075294976"/>
+        <c:axId val="-2045135936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105757312"/>
+        <c:crossAx val="-2030995584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1148,7 +1214,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0128325763720936"/>
+          <c:y val="0.957654752627922"/>
+          <c:w val="0.987167423627906"/>
+          <c:h val="0.0297402058765547"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1810,8 +1885,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1839,186 +1914,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="DCITE2"/>
-      <sheetName val="DCITE2_Pivot"/>
-      <sheetName val="DCITE_FieldList"/>
-      <sheetName val="Charts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Author/ Originator</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Publisher</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Creation/ Revision Date</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Contributor Name</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v xml:space="preserve">Creation/ Revision Date </v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>Resource Type</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>Spatial Extent</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>Transfer Size</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Resource Format</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Rights</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>25</v>
-          </cell>
-          <cell r="D21">
-            <v>252</v>
-          </cell>
-          <cell r="E21">
-            <v>2</v>
-          </cell>
-          <cell r="F21">
-            <v>1</v>
-          </cell>
-          <cell r="G21">
-            <v>2</v>
-          </cell>
-          <cell r="H21">
-            <v>293</v>
-          </cell>
-          <cell r="I21">
-            <v>21</v>
-          </cell>
-          <cell r="J21">
-            <v>318</v>
-          </cell>
-          <cell r="K21">
-            <v>558</v>
-          </cell>
-          <cell r="L21">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Mandatory</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Recommended</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Optional</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>DCITE Recommendation</v>
-          </cell>
-          <cell r="B2">
-            <v>8</v>
-          </cell>
-          <cell r="C2">
-            <v>11</v>
-          </cell>
-          <cell r="D2">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>RDA-CISL</v>
-          </cell>
-          <cell r="B3">
-            <v>5</v>
-          </cell>
-          <cell r="C3">
-            <v>9</v>
-          </cell>
-          <cell r="D3">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ISO, ISO-1</v>
-          </cell>
-          <cell r="B4">
-            <v>5</v>
-          </cell>
-          <cell r="C4">
-            <v>9</v>
-          </cell>
-          <cell r="D4">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>MODS</v>
-          </cell>
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-          <cell r="C5">
-            <v>9</v>
-          </cell>
-          <cell r="D5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>NcML</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>7</v>
-          </cell>
-          <cell r="D6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>DataCite Dialect</v>
-          </cell>
-          <cell r="B7">
-            <v>8</v>
-          </cell>
-          <cell r="C7">
-            <v>11</v>
-          </cell>
-          <cell r="D7">
-            <v>6</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="DCITE"/>
       <sheetName val="CSW"/>
       <sheetName val="DCITE_Pivot"/>
@@ -5135,6 +5030,96 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DCITE2"/>
+      <sheetName val="DCITE2_Pivot"/>
+      <sheetName val="DCITE_FieldList"/>
+      <sheetName val="Charts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Author/ Originator</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Publisher</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Creation/ Revision Date</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Contributor Name</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v xml:space="preserve">Creation/ Revision Date </v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>Resource Type</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Spatial Extent</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>Transfer Size</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>Resource Format</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Rights</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>25</v>
+          </cell>
+          <cell r="D21">
+            <v>252</v>
+          </cell>
+          <cell r="E21">
+            <v>2</v>
+          </cell>
+          <cell r="F21">
+            <v>1</v>
+          </cell>
+          <cell r="G21">
+            <v>2</v>
+          </cell>
+          <cell r="H21">
+            <v>293</v>
+          </cell>
+          <cell r="I21">
+            <v>21</v>
+          </cell>
+          <cell r="J21">
+            <v>318</v>
+          </cell>
+          <cell r="K21">
+            <v>558</v>
+          </cell>
+          <cell r="L21">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Mandatory</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5403,10 +5388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5441,13 +5426,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5469,13 +5454,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5506,6 +5491,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
